--- a/Pre-Study Survey Charts.xlsx
+++ b/Pre-Study Survey Charts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inannai2\Documents\GitHub\ExperiencesGamifying\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="24675" windowHeight="11535"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="14445" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +24,20 @@
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Navigation Indicator</t>
+  </si>
+  <si>
+    <t>Point Score</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,6 +82,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -463,20 +485,21 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="433488256"/>
-        <c:axId val="433489792"/>
+        <c:axId val="355418152"/>
+        <c:axId val="355418544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433488256"/>
+        <c:axId val="355418152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="433489792"/>
+        <c:crossAx val="355418544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -484,7 +507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433489792"/>
+        <c:axId val="355418544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433488256"/>
+        <c:crossAx val="355418152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -591,11 +614,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet3!$C$13:$C$15</c:f>
+              <c:f>Sheet1!$L$50:$L$52</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Lederboard</c:v>
+                  <c:v>Leaderboard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Point Score</c:v>
@@ -642,11 +665,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet3!$C$13:$C$15</c:f>
+              <c:f>Sheet1!$L$50:$L$52</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Lederboard</c:v>
+                  <c:v>Leaderboard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Point Score</c:v>
@@ -693,11 +716,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet3!$C$13:$C$15</c:f>
+              <c:f>Sheet1!$L$50:$L$52</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Lederboard</c:v>
+                  <c:v>Leaderboard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Point Score</c:v>
@@ -744,11 +767,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet3!$C$13:$C$15</c:f>
+              <c:f>Sheet1!$L$50:$L$52</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Lederboard</c:v>
+                  <c:v>Leaderboard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Point Score</c:v>
@@ -788,20 +811,21 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="103104896"/>
-        <c:axId val="103106432"/>
+        <c:axId val="355419328"/>
+        <c:axId val="355419720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103104896"/>
+        <c:axId val="355419328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103106432"/>
+        <c:crossAx val="355419720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103106432"/>
+        <c:axId val="355419720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -840,9 +864,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103104896"/>
+        <c:crossAx val="355419328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -873,8 +898,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1167,20 +1192,21 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="103125760"/>
-        <c:axId val="103127296"/>
+        <c:axId val="355420504"/>
+        <c:axId val="355420896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103125760"/>
+        <c:axId val="355420504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103127296"/>
+        <c:crossAx val="355420896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,7 +1214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103127296"/>
+        <c:axId val="355420896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103125760"/>
+        <c:crossAx val="355420504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1524,20 +1550,21 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="100742656"/>
-        <c:axId val="100744192"/>
+        <c:axId val="355421680"/>
+        <c:axId val="356269904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100742656"/>
+        <c:axId val="355421680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100744192"/>
+        <c:crossAx val="356269904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1545,7 +1572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100744192"/>
+        <c:axId val="356269904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100742656"/>
+        <c:crossAx val="355421680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1638,7 +1665,7 @@
           <c:x val="0.28462304329519272"/>
           <c:y val="0.16655110819480898"/>
           <c:w val="0.63499615990927538"/>
-          <c:h val="0.63181042879555072"/>
+          <c:h val="0.65892895591440903"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1649,15 +1676,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[4]PerEditSequence!$AA$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Developer "D"</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1687,7 +1706,7 @@
             <c:numRef>
               <c:f>[4]PerEditSequence!$AA$11:$AA$15</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.8133807006505999E-2</c:v>
@@ -1750,7 +1769,7 @@
             <c:numRef>
               <c:f>[4]PerEditSequence!$AD$11:$AD$15</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0584510529489762E-2</c:v>
@@ -1780,11 +1799,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="404777216"/>
-        <c:axId val="404799872"/>
+        <c:axId val="356272256"/>
+        <c:axId val="356272648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="404777216"/>
+        <c:axId val="356272256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,10 +1829,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404799872"/>
+        <c:crossAx val="356272648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1821,7 +1841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="404799872"/>
+        <c:axId val="356272648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,11 +1867,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404777216"/>
+        <c:crossAx val="356272256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1862,10 +1882,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71113178188639647"/>
-          <c:y val="0.47152015346523612"/>
-          <c:w val="0.15926792918615368"/>
-          <c:h val="0.15488984556817081"/>
+          <c:x val="0.66651228635790605"/>
+          <c:y val="0.47152026335691088"/>
+          <c:w val="0.24325748651497303"/>
+          <c:h val="0.14585026024289335"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1903,8 +1923,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2628,7 +2648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2663,7 +2683,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2872,14 +2892,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="L50:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
